--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H2">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I2">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J2">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N2">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q2">
-        <v>2.161050483568</v>
+        <v>0.12332992053</v>
       </c>
       <c r="R2">
-        <v>19.449454352112</v>
+        <v>1.10996928477</v>
       </c>
       <c r="S2">
-        <v>0.01346343279871963</v>
+        <v>0.0006445714968634215</v>
       </c>
       <c r="T2">
-        <v>0.01346343279871963</v>
+        <v>0.0006445714968634216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H3">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I3">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J3">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q3">
-        <v>19.93023287252134</v>
+        <v>0.3613266810744444</v>
       </c>
       <c r="R3">
-        <v>179.372095852692</v>
+        <v>3.25194012967</v>
       </c>
       <c r="S3">
-        <v>0.1241661650120264</v>
+        <v>0.001888437766569335</v>
       </c>
       <c r="T3">
-        <v>0.1241661650120265</v>
+        <v>0.001888437766569335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H4">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I4">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J4">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N4">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q4">
-        <v>25.95251645773733</v>
+        <v>0.2900878569288888</v>
       </c>
       <c r="R4">
-        <v>233.572648119636</v>
+        <v>2.61079071236</v>
       </c>
       <c r="S4">
-        <v>0.1616852377782118</v>
+        <v>0.001516115175936341</v>
       </c>
       <c r="T4">
-        <v>0.1616852377782118</v>
+        <v>0.001516115175936342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H5">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I5">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J5">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N5">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q5">
-        <v>20.15506241087733</v>
+        <v>0.2501773929066667</v>
       </c>
       <c r="R5">
-        <v>181.395561697896</v>
+        <v>2.25159653616</v>
       </c>
       <c r="S5">
-        <v>0.1255668622210178</v>
+        <v>0.001307527126704121</v>
       </c>
       <c r="T5">
-        <v>0.1255668622210178</v>
+        <v>0.001307527126704121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H6">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I6">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J6">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N6">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q6">
-        <v>19.84703364992667</v>
+        <v>0.4432060437622222</v>
       </c>
       <c r="R6">
-        <v>178.62330284934</v>
+        <v>3.98885439386</v>
       </c>
       <c r="S6">
-        <v>0.1236478304562971</v>
+        <v>0.002316372067857122</v>
       </c>
       <c r="T6">
-        <v>0.1236478304562971</v>
+        <v>0.002316372067857123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>4.990556000000001</v>
+        <v>0.09047666666666666</v>
       </c>
       <c r="H7">
-        <v>14.971668</v>
+        <v>0.27143</v>
       </c>
       <c r="I7">
-        <v>0.7147067639482496</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="J7">
-        <v>0.7147067639482497</v>
+        <v>0.01063327555148536</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N7">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q7">
-        <v>26.67353868046801</v>
+        <v>0.5664036270877778</v>
       </c>
       <c r="R7">
-        <v>240.0618481242121</v>
+        <v>5.09763264379</v>
       </c>
       <c r="S7">
-        <v>0.1661772356819769</v>
+        <v>0.002960251917555015</v>
       </c>
       <c r="T7">
-        <v>0.1661772356819769</v>
+        <v>0.002960251917555016</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H8">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I8">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J8">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N8">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q8">
-        <v>0.3207090530173333</v>
+        <v>6.802691760828001</v>
       </c>
       <c r="R8">
-        <v>2.886381477156</v>
+        <v>61.224225847452</v>
       </c>
       <c r="S8">
-        <v>0.001998030502328157</v>
+        <v>0.03555358823012264</v>
       </c>
       <c r="T8">
-        <v>0.001998030502328157</v>
+        <v>0.03555358823012265</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H9">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I9">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J9">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>11.980769</v>
       </c>
       <c r="O9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q9">
-        <v>2.957731047730111</v>
+        <v>19.93023287252134</v>
       </c>
       <c r="R9">
-        <v>26.619579429571</v>
+        <v>179.372095852692</v>
       </c>
       <c r="S9">
-        <v>0.01842678526049709</v>
+        <v>0.1041633691181431</v>
       </c>
       <c r="T9">
-        <v>0.0184267852604971</v>
+        <v>0.1041633691181431</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H10">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I10">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J10">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N10">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q10">
-        <v>3.851463461804776</v>
+        <v>16.00080715017067</v>
       </c>
       <c r="R10">
-        <v>34.66317115624299</v>
+        <v>144.007264351536</v>
       </c>
       <c r="S10">
-        <v>0.02399477471212023</v>
+        <v>0.08362661851630437</v>
       </c>
       <c r="T10">
-        <v>0.02399477471212024</v>
+        <v>0.08362661851630437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H11">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I11">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J11">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N11">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q11">
-        <v>2.991096704333111</v>
+        <v>13.799406357824</v>
       </c>
       <c r="R11">
-        <v>26.919870338998</v>
+        <v>124.194657220416</v>
       </c>
       <c r="S11">
-        <v>0.01863465466423169</v>
+        <v>0.07212121741151692</v>
       </c>
       <c r="T11">
-        <v>0.0186346546642317</v>
+        <v>0.07212121741151691</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H12">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I12">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J12">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N12">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q12">
-        <v>2.945383930393889</v>
+        <v>24.44657459677067</v>
       </c>
       <c r="R12">
-        <v>26.508455373545</v>
+        <v>220.019171370936</v>
       </c>
       <c r="S12">
-        <v>0.01834986221507167</v>
+        <v>0.1277675775132826</v>
       </c>
       <c r="T12">
-        <v>0.01834986221507168</v>
+        <v>0.1277675775132827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7406196666666666</v>
+        <v>4.990556000000001</v>
       </c>
       <c r="H13">
-        <v>2.221859</v>
+        <v>14.971668</v>
       </c>
       <c r="I13">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219087</v>
       </c>
       <c r="J13">
-        <v>0.1060655135980369</v>
+        <v>0.5865153863219088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N13">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q13">
-        <v>3.958466216259001</v>
+        <v>31.24196683768934</v>
       </c>
       <c r="R13">
-        <v>35.626195946331</v>
+        <v>281.177701539204</v>
       </c>
       <c r="S13">
-        <v>0.02466140624378802</v>
+        <v>0.163283015532539</v>
       </c>
       <c r="T13">
-        <v>0.02466140624378803</v>
+        <v>0.163283015532539</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H14">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I14">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J14">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N14">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O14">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P14">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q14">
-        <v>0.1985479569653333</v>
+        <v>2.952945315354</v>
       </c>
       <c r="R14">
-        <v>1.786931612688</v>
+        <v>26.576507838186</v>
       </c>
       <c r="S14">
-        <v>0.00123696188323762</v>
+        <v>0.01543327340108484</v>
       </c>
       <c r="T14">
-        <v>0.00123696188323762</v>
+        <v>0.01543327340108484</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,13 +1334,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H15">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I15">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J15">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.980769</v>
       </c>
       <c r="O15">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P15">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q15">
-        <v>1.831103460456444</v>
+        <v>8.651411803445111</v>
       </c>
       <c r="R15">
-        <v>16.479931144108</v>
+        <v>77.86270623100602</v>
       </c>
       <c r="S15">
-        <v>0.0114078493653027</v>
+        <v>0.0452157386639361</v>
       </c>
       <c r="T15">
-        <v>0.0114078493653027</v>
+        <v>0.04521573866393611</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H16">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I16">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J16">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N16">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O16">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P16">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q16">
-        <v>2.384404788307111</v>
+        <v>6.945707695894222</v>
       </c>
       <c r="R16">
-        <v>21.45964309476399</v>
+        <v>62.511369263048</v>
       </c>
       <c r="S16">
-        <v>0.01485493924200959</v>
+        <v>0.03630104671339095</v>
       </c>
       <c r="T16">
-        <v>0.01485493924200959</v>
+        <v>0.03630104671339097</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H17">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I17">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J17">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N17">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O17">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P17">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q17">
-        <v>1.851759824500445</v>
+        <v>5.990113001098668</v>
       </c>
       <c r="R17">
-        <v>16.665838420504</v>
+        <v>53.91101700988801</v>
       </c>
       <c r="S17">
-        <v>0.01153653935717791</v>
+        <v>0.03130672659891975</v>
       </c>
       <c r="T17">
-        <v>0.01153653935717791</v>
+        <v>0.03130672659891975</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H18">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I18">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J18">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N18">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O18">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P18">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q18">
-        <v>1.823459476295556</v>
+        <v>10.61188724552756</v>
       </c>
       <c r="R18">
-        <v>16.41113528666</v>
+        <v>95.50698520974801</v>
       </c>
       <c r="S18">
-        <v>0.01136022703169822</v>
+        <v>0.05546196751770133</v>
       </c>
       <c r="T18">
-        <v>0.01136022703169822</v>
+        <v>0.05546196751770135</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,14 +1582,14 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4585106666666667</v>
+        <v>2.166324666666667</v>
       </c>
       <c r="H19">
-        <v>1.375532</v>
+        <v>6.498974</v>
       </c>
       <c r="I19">
-        <v>0.06566416142992641</v>
+        <v>0.2545974333859153</v>
       </c>
       <c r="J19">
-        <v>0.06566416142992643</v>
+        <v>0.2545974333859154</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N19">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O19">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P19">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q19">
-        <v>2.450649186732001</v>
+        <v>13.56166395000244</v>
       </c>
       <c r="R19">
-        <v>22.055842680588</v>
+        <v>122.054975550022</v>
       </c>
       <c r="S19">
-        <v>0.01526764455050038</v>
+        <v>0.07087868049088231</v>
       </c>
       <c r="T19">
-        <v>0.01526764455050039</v>
+        <v>0.07087868049088233</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,13 +1644,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H20">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I20">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J20">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N20">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O20">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P20">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q20">
-        <v>0.1594410539426667</v>
+        <v>0.433476749565</v>
       </c>
       <c r="R20">
-        <v>1.434969485484</v>
+        <v>3.901290746085</v>
       </c>
       <c r="S20">
-        <v>0.0009933242797595095</v>
+        <v>0.002265522884648554</v>
       </c>
       <c r="T20">
-        <v>0.0009933242797595097</v>
+        <v>0.002265522884648555</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H21">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I21">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J21">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>11.980769</v>
       </c>
       <c r="O21">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P21">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q21">
-        <v>1.470441046463222</v>
+        <v>1.269981481948333</v>
       </c>
       <c r="R21">
-        <v>13.233969418169</v>
+        <v>11.429833337535</v>
       </c>
       <c r="S21">
-        <v>0.009160907791867236</v>
+        <v>0.006637431219370166</v>
       </c>
       <c r="T21">
-        <v>0.009160907791867241</v>
+        <v>0.006637431219370167</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H22">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I22">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J22">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N22">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O22">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P22">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q22">
-        <v>1.914761643908555</v>
+        <v>1.019593143086667</v>
       </c>
       <c r="R22">
-        <v>17.23285479517699</v>
+        <v>9.17633828778</v>
       </c>
       <c r="S22">
-        <v>0.01192904326592404</v>
+        <v>0.005328801604726482</v>
       </c>
       <c r="T22">
-        <v>0.01192904326592405</v>
+        <v>0.005328801604726482</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H23">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I23">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J23">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N23">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O23">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P23">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q23">
-        <v>1.487028839680222</v>
+        <v>0.8793168975200002</v>
       </c>
       <c r="R23">
-        <v>13.383259557122</v>
+        <v>7.913852077680001</v>
       </c>
       <c r="S23">
-        <v>0.009264250421275601</v>
+        <v>0.0045956618346632</v>
       </c>
       <c r="T23">
-        <v>0.009264250421275606</v>
+        <v>0.004595661834663199</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H24">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I24">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J24">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N24">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O24">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P24">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q24">
-        <v>1.464302655972778</v>
+        <v>1.557768904836667</v>
       </c>
       <c r="R24">
-        <v>13.178723903755</v>
+        <v>14.01992014353</v>
       </c>
       <c r="S24">
-        <v>0.009122665368338128</v>
+        <v>0.008141523406833117</v>
       </c>
       <c r="T24">
-        <v>0.009122665368338129</v>
+        <v>0.008141523406833117</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3682003333333333</v>
+        <v>0.318005</v>
       </c>
       <c r="H25">
-        <v>1.104601</v>
+        <v>0.9540150000000001</v>
       </c>
       <c r="I25">
-        <v>0.05273065139862841</v>
+        <v>0.03737355625852081</v>
       </c>
       <c r="J25">
-        <v>0.05273065139862843</v>
+        <v>0.03737355625852082</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N25">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O25">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P25">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q25">
-        <v>1.967958246201</v>
+        <v>1.990780519088334</v>
       </c>
       <c r="R25">
-        <v>17.711624215809</v>
+        <v>17.917024671795</v>
       </c>
       <c r="S25">
-        <v>0.01226046027146389</v>
+        <v>0.01040461530827929</v>
       </c>
       <c r="T25">
-        <v>0.0122604602714639</v>
+        <v>0.01040461530827929</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H26">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I26">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J26">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N26">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O26">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P26">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q26">
-        <v>0.1839397573853334</v>
+        <v>0.298937950836</v>
       </c>
       <c r="R26">
-        <v>1.655457816468</v>
+        <v>2.690441557524</v>
       </c>
       <c r="S26">
-        <v>0.00114595220306074</v>
+        <v>0.001562369306747208</v>
       </c>
       <c r="T26">
-        <v>0.001145952203060741</v>
+        <v>0.001562369306747209</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H27">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I27">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J27">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>11.980769</v>
       </c>
       <c r="O27">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P27">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q27">
-        <v>1.696379713051445</v>
+        <v>0.8758155130448889</v>
       </c>
       <c r="R27">
-        <v>15.267417417463</v>
+        <v>7.882339617404</v>
       </c>
       <c r="S27">
-        <v>0.01056851491505693</v>
+        <v>0.004577362198836645</v>
       </c>
       <c r="T27">
-        <v>0.01056851491505694</v>
+        <v>0.004577362198836645</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H28">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I28">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J28">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N28">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O28">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P28">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q28">
-        <v>2.208971801942111</v>
+        <v>0.7031405610257777</v>
       </c>
       <c r="R28">
-        <v>19.880746217479</v>
+        <v>6.328265049231999</v>
       </c>
       <c r="S28">
-        <v>0.01376198456993538</v>
+        <v>0.003674893829316339</v>
       </c>
       <c r="T28">
-        <v>0.01376198456993538</v>
+        <v>0.003674893829316339</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H29">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I29">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J29">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N29">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O29">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P29">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q29">
-        <v>1.715516281610445</v>
+        <v>0.6064020544213334</v>
       </c>
       <c r="R29">
-        <v>15.439646534494</v>
+        <v>5.457618489792</v>
       </c>
       <c r="S29">
-        <v>0.0106877365189719</v>
+        <v>0.003169299698237735</v>
       </c>
       <c r="T29">
-        <v>0.0106877365189719</v>
+        <v>0.003169299698237735</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H30">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I30">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J30">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N30">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O30">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P30">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q30">
-        <v>1.689298136320556</v>
+        <v>1.074281941892444</v>
       </c>
       <c r="R30">
-        <v>15.203683226885</v>
+        <v>9.668537477032</v>
       </c>
       <c r="S30">
-        <v>0.01052439640271756</v>
+        <v>0.005614627142896092</v>
       </c>
       <c r="T30">
-        <v>0.01052439640271757</v>
+        <v>0.005614627142896094</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,13 +2326,13 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.4247756666666667</v>
+        <v>0.2193053333333333</v>
       </c>
       <c r="H31">
-        <v>1.274327</v>
+        <v>0.6579159999999999</v>
       </c>
       <c r="I31">
-        <v>0.06083290962515873</v>
+        <v>0.0257738721502083</v>
       </c>
       <c r="J31">
-        <v>0.06083290962515875</v>
+        <v>0.02577387215020831</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N31">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O31">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P31">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q31">
-        <v>2.270342257527001</v>
+        <v>1.372899122127555</v>
       </c>
       <c r="R31">
-        <v>20.43308031774301</v>
+        <v>12.356092099148</v>
       </c>
       <c r="S31">
-        <v>0.01414432501541622</v>
+        <v>0.007175319974174281</v>
       </c>
       <c r="T31">
-        <v>0.01414432501541622</v>
+        <v>0.007175319974174282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H32">
+        <v>2.172468</v>
+      </c>
+      <c r="I32">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J32">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.363113</v>
+      </c>
+      <c r="N32">
+        <v>4.089339</v>
+      </c>
+      <c r="O32">
+        <v>0.06061833851125786</v>
+      </c>
+      <c r="P32">
+        <v>0.06061833851125786</v>
+      </c>
+      <c r="Q32">
+        <v>0.9871064576279999</v>
+      </c>
+      <c r="R32">
+        <v>8.883958118651998</v>
+      </c>
+      <c r="S32">
+        <v>0.005159013191791193</v>
+      </c>
+      <c r="T32">
+        <v>0.005159013191791194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H33">
+        <v>2.172468</v>
+      </c>
+      <c r="I33">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J33">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.993589666666667</v>
+      </c>
+      <c r="N33">
+        <v>11.980769</v>
+      </c>
+      <c r="O33">
+        <v>0.1775969932713293</v>
+      </c>
+      <c r="P33">
+        <v>0.1775969932713292</v>
+      </c>
+      <c r="Q33">
+        <v>2.891981918654666</v>
+      </c>
+      <c r="R33">
+        <v>26.027837267892</v>
+      </c>
+      <c r="S33">
+        <v>0.0151146543044739</v>
+      </c>
+      <c r="T33">
+        <v>0.0151146543044739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H34">
+        <v>2.172468</v>
+      </c>
+      <c r="I34">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J34">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.206217333333333</v>
+      </c>
+      <c r="N34">
+        <v>9.618651999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.1425821393036839</v>
+      </c>
+      <c r="P34">
+        <v>0.1425821393036839</v>
+      </c>
+      <c r="Q34">
+        <v>2.321801519237333</v>
+      </c>
+      <c r="R34">
+        <v>20.896213673136</v>
+      </c>
+      <c r="S34">
+        <v>0.0121346634640094</v>
+      </c>
+      <c r="T34">
+        <v>0.0121346634640094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H35">
+        <v>2.172468</v>
+      </c>
+      <c r="I35">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J35">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.765104</v>
+      </c>
+      <c r="N35">
+        <v>8.295312000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.1229656017445606</v>
+      </c>
+      <c r="P35">
+        <v>0.1229656017445605</v>
+      </c>
+      <c r="Q35">
+        <v>2.002366652224</v>
+      </c>
+      <c r="R35">
+        <v>18.021299870016</v>
+      </c>
+      <c r="S35">
+        <v>0.01046516907451884</v>
+      </c>
+      <c r="T35">
+        <v>0.01046516907451884</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H36">
+        <v>2.172468</v>
+      </c>
+      <c r="I36">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J36">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>4.898567333333333</v>
+      </c>
+      <c r="N36">
+        <v>14.695702</v>
+      </c>
+      <c r="O36">
+        <v>0.2178418170996753</v>
+      </c>
+      <c r="P36">
+        <v>0.2178418170996753</v>
+      </c>
+      <c r="Q36">
+        <v>3.547326925837333</v>
+      </c>
+      <c r="R36">
+        <v>31.925942332536</v>
+      </c>
+      <c r="S36">
+        <v>0.01853974945110498</v>
+      </c>
+      <c r="T36">
+        <v>0.01853974945110499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.7241559999999999</v>
+      </c>
+      <c r="H37">
+        <v>2.172468</v>
+      </c>
+      <c r="I37">
+        <v>0.08510647633196142</v>
+      </c>
+      <c r="J37">
+        <v>0.08510647633196144</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>6.260217666666667</v>
+      </c>
+      <c r="N37">
+        <v>18.780653</v>
+      </c>
+      <c r="O37">
+        <v>0.278395110069493</v>
+      </c>
+      <c r="P37">
+        <v>0.278395110069493</v>
+      </c>
+      <c r="Q37">
+        <v>4.533374184622666</v>
+      </c>
+      <c r="R37">
+        <v>40.800367661604</v>
+      </c>
+      <c r="S37">
+        <v>0.0236932268460631</v>
+      </c>
+      <c r="T37">
+        <v>0.02369322684606311</v>
       </c>
     </row>
   </sheetData>
